--- a/your-code/VIP.xlsx
+++ b/your-code/VIP.xlsx
@@ -14,12 +14,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="42">
+  <si>
+    <t>Country</t>
+  </si>
   <si>
     <t>Customer Type</t>
   </si>
   <si>
-    <t>Country</t>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Channel Islands</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Unspecified</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>EIRE</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>European Community</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>RSA</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Brazil</t>
   </si>
   <si>
     <t>Regular</t>
@@ -29,117 +140,6 @@
   </si>
   <si>
     <t>VIP</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Channel Islands</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Unspecified</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>EIRE</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>European Community</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>RSA</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Singapore</t>
   </si>
 </sst>
 </file>
@@ -519,29 +519,25 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>2987</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>756</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>178</v>
@@ -549,30 +545,30 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>28</v>
@@ -580,10 +576,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <v>23</v>
@@ -594,7 +590,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -602,28 +598,32 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C11">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -631,10 +631,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -645,7 +645,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C14">
         <v>11</v>
@@ -653,10 +653,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -664,10 +664,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C16">
         <v>9</v>
@@ -675,46 +675,54 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C17">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C18">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C19">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C20">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -722,46 +730,54 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B24" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B26" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -769,64 +785,76 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B29" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C29">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B30" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C30">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B31" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C31">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B32" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C32">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B33" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -834,10 +862,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -845,19 +873,21 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B36" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -865,19 +895,21 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C37">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B38" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -885,10 +917,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -896,19 +928,21 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B41" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -916,19 +950,21 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B43" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -936,19 +972,21 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B45" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -956,19 +994,21 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B47" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -976,10 +1016,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -987,10 +1027,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -998,10 +1038,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -1009,10 +1049,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1020,19 +1060,21 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B53" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1040,10 +1082,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1051,10 +1093,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -1062,28 +1104,32 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B57" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B58" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1091,19 +1137,21 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B60" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -1111,10 +1159,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -1122,37 +1170,43 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B63" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1"/>
+      <c r="A64" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B64" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1"/>
+      <c r="A65" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B65" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -1160,19 +1214,21 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B67" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -1180,10 +1236,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -1191,10 +1247,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -1202,7 +1258,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>40</v>
@@ -1213,7 +1269,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>41</v>
@@ -1224,10 +1280,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -1235,10 +1291,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -1246,10 +1302,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -1257,43 +1313,30 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B76" s="1" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A75:A76"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
